--- a/biology/Zoologie/Hongshanornis/Hongshanornis.xlsx
+++ b/biology/Zoologie/Hongshanornis/Hongshanornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hongshanornis longicresta
 Hongshanornis est un genre éteint d'oiseaux ayant vécu au cours du Crétacé inférieur il y a environ −125 Ma (millions d'années). Les fossiles de ce genre ont été trouvés dans les sédiments lacustres de la formation d'Yixian en Chine dans la province du Liaoning.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il possède de longues pattes, un corps relativement petit, un bec fin et pourvu de dents. Un des fossiles, très bien conservé[1], révèle le plumage presque complet de l'oiseau aux ailes courtes et dont la tête était ornée d'une crête; il montre également la présence de gastrolithes[1] appelés aussi « pierres d'estomac », volontairement avalés pour être stockés dans l'estomac pour, entre autres, faciliter le broyage des aliments. Il vivait il y a 125 millions d’années sur les bords de lacs ou dans des zones marécageuses. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possède de longues pattes, un corps relativement petit, un bec fin et pourvu de dents. Un des fossiles, très bien conservé, révèle le plumage presque complet de l'oiseau aux ailes courtes et dont la tête était ornée d'une crête; il montre également la présence de gastrolithes appelés aussi « pierres d'estomac », volontairement avalés pour être stockés dans l'estomac pour, entre autres, faciliter le broyage des aliments. Il vivait il y a 125 millions d’années sur les bords de lacs ou dans des zones marécageuses. 
 La seule espèce connue, Hongshanornis longicresta, était probablement un échassier.
 </t>
         </is>
